--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D785A1-5DF6-476E-86AE-E3216A84EA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D908CB8-8557-4B30-B999-223B5D684FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>#</t>
   </si>
@@ -103,6 +103,30 @@
   </si>
   <si>
     <t>计算单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#需要合成的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CraftList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;(int,int)&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1;5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -164,7 +188,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -432,18 +455,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,15 +491,18 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
@@ -484,8 +511,11 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +531,11 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
@@ -516,7 +549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
@@ -530,7 +563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>3</v>
       </c>
@@ -544,7 +577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>4</v>
       </c>
@@ -558,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>5</v>
       </c>
@@ -572,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>6</v>
       </c>
@@ -584,6 +617,28 @@
       </c>
       <c r="E10">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>1001</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D908CB8-8557-4B30-B999-223B5D684FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD42A4-44CC-46B8-94AD-36F0A49FCEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -127,6 +127,22 @@
   </si>
   <si>
     <t>合成材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应技能ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +204,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,19 +472,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,16 +503,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,17 +528,23 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,119 +554,132 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>1001</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD42A4-44CC-46B8-94AD-36F0A49FCEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9282ACFF-CDD5-4546-8ADF-61A9C967BE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8715" yWindow="12375" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -143,6 +143,14 @@
   </si>
   <si>
     <t>对应技能ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttrAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,7 +212,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -472,19 +479,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="7" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,10 +522,13 @@
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +538,7 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -541,10 +551,13 @@
         <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,10 +580,13 @@
         <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
@@ -584,8 +600,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
@@ -599,8 +618,11 @@
       <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>3</v>
       </c>
@@ -615,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>4</v>
       </c>
@@ -630,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>5</v>
       </c>
@@ -645,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>6</v>
       </c>
@@ -660,12 +682,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>1001</v>
       </c>
@@ -681,6 +703,10 @@
       </c>
       <c r="G12" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9282ACFF-CDD5-4546-8ADF-61A9C967BE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56116C4-05E7-48C5-8020-03A4CC8BBF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="12375" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>属性加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,19 +491,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="8" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="8" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -604,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -622,7 +634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -637,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -652,7 +664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
@@ -667,7 +679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
@@ -682,12 +694,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1001</v>
       </c>
@@ -707,6 +719,29 @@
       <c r="H12" s="2"/>
       <c r="I12">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1002</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56116C4-05E7-48C5-8020-03A4CC8BBF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E061A967-C27A-49A9-887A-A61C55D8F417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="8595" windowWidth="28800" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>8,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店售价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,19 +503,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="8" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +553,11 @@
       <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +585,11 @@
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,8 +617,11 @@
       <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
@@ -609,14 +632,17 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1</v>
+      <c r="F5" s="1">
+        <v>4001</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
@@ -627,14 +653,17 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>2</v>
+      <c r="F6" s="1">
+        <v>4002</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>3</v>
       </c>
@@ -645,11 +674,14 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>4003</v>
+      </c>
+      <c r="J7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>4</v>
       </c>
@@ -660,11 +692,14 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>4004</v>
+      </c>
+      <c r="J8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>5</v>
       </c>
@@ -676,10 +711,13 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4005</v>
+      </c>
+      <c r="J9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>6</v>
       </c>
@@ -690,16 +728,19 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>1001</v>
       </c>
@@ -711,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4501</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>23</v>
@@ -720,8 +761,11 @@
       <c r="I12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>1002</v>
       </c>
@@ -732,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4502</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>32</v>
@@ -742,6 +786,9 @@
       </c>
       <c r="I13">
         <v>4</v>
+      </c>
+      <c r="J13">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E061A967-C27A-49A9-887A-A61C55D8F417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561948C2-9F62-46F2-B569-3CF6075597E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="8595" windowWidth="28800" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="2520" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>商店售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1;5,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -791,6 +799,29 @@
         <v>122</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>1003</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4502</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3wenjian\unitytest\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561948C2-9F62-46F2-B569-3CF6075597E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F9BD76-0167-4DDC-B7F7-3284AC4CC92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="2520" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,72 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>feikai huang</author>
+  </authors>
+  <commentList>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{8ADE91C7-ACE2-404D-AC4C-B3FA4FC2A8B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>feikai huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+[InspectorName("当前血量")]
+Hp,
+[InspectorName("最大血量")]
+MaxHp,
+[InspectorName("当前蓝量")]
+Power,
+[InspectorName("最大蓝量")]
+[InspectorName("护盾")]
+HuDun,
+[InspectorName("攻击力")]
+AttackDamage,
+[InspectorName("法强")]
+AbilityPower,
+[InspectorName("普攻速")]
+AttackSpeed,
+[InspectorName("移速")]
+MovementSpeed,
+[InspectorName("护甲")]
+Armor,
+[InspectorName("魔抗")]
+MagicResist,
+[InspectorName("护甲穿透固定值")]
+ArmorPenetrationNum,
+[InspectorName("护甲穿透百分比")]
+ArmorPenetrationPercent,
+[InspectorName("法穿固定值")]
+MagicPenetrationNum,
+[InspectorName("法穿百分比")]
+MagicPenetrationPercent,</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -162,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StoreCoin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +243,14 @@
   </si>
   <si>
     <t>4,1;5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +279,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -510,22 +593,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,10 +645,10 @@
         <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,10 +677,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,10 +709,10 @@
         <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -650,7 +733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -671,7 +754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -689,7 +772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -707,7 +790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
@@ -725,7 +808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
@@ -743,12 +826,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1001</v>
       </c>
@@ -773,7 +856,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1002</v>
       </c>
@@ -790,7 +873,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -799,21 +882,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1003</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4503</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>4502</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>38</v>
+      <c r="H14" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -826,5 +912,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F9BD76-0167-4DDC-B7F7-3284AC4CC92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CA032D-792D-4C00-9424-F0931A72FCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="7245" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,37 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>jump Yellow</author>
     <author>feikai huang</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{8ADE91C7-ACE2-404D-AC4C-B3FA4FC2A8B1}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{84E9141E-0C7C-4520-AF7C-41D162B69530}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jump Yellow:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+需要显示的才填，填多个是将其连接起来</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="1" shapeId="0" xr:uid="{8ADE91C7-ACE2-404D-AC4C-B3FA4FC2A8B1}">
       <text>
         <r>
           <rPr>
@@ -95,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -251,6 +278,46 @@
   </si>
   <si>
     <t>9,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetIDList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetObjLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#万能胶合成的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两把斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2;7,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004,2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d模型长度叠加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +394,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -594,21 +667,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="6" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,19 +710,25 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,20 +747,26 @@
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,19 +786,25 @@
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
@@ -726,14 +818,18 @@
       <c r="F5" s="1">
         <v>4001</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="G5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
@@ -747,14 +843,16 @@
       <c r="F6" s="1">
         <v>4002</v>
       </c>
-      <c r="I6">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>3</v>
       </c>
@@ -768,11 +866,13 @@
       <c r="F7" s="1">
         <v>4003</v>
       </c>
-      <c r="J7">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="L7">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>4</v>
       </c>
@@ -786,11 +886,13 @@
       <c r="F8" s="1">
         <v>4004</v>
       </c>
-      <c r="J8">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="L8">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>5</v>
       </c>
@@ -804,11 +906,11 @@
       <c r="F9">
         <v>4005</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>6</v>
       </c>
@@ -822,96 +924,155 @@
       <c r="F10" s="1">
         <v>4000</v>
       </c>
-      <c r="J10">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="L10">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="L11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13">
         <v>1001</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="D13" s="2"/>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>4501</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12">
+      <c r="J13" s="2"/>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="J12">
+      <c r="L13">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B14">
         <v>1002</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>4502</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I13">
+      <c r="K14">
         <v>4</v>
       </c>
-      <c r="J13">
+      <c r="L14">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B15">
         <v>1003</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>4503</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I14">
+      <c r="K15">
         <v>5</v>
       </c>
-      <c r="J14">
+      <c r="L15">
         <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>2001</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4001</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="4">
+        <v>593857</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="G17" numberStoredAsText="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CA032D-792D-4C00-9424-F0931A72FCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C28132-AF29-4136-A17B-A9FF196BE9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="7245" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6765" yWindow="7590" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -318,6 +318,10 @@
   </si>
   <si>
     <t>3d模型长度叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>593,857</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,12 +398,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -670,13 +679,13 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="5" customWidth="1"/>
     <col min="9" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="11.375" customWidth="1"/>
     <col min="12" max="12" width="10.875" customWidth="1"/>
@@ -712,7 +721,7 @@
       <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -750,7 +759,7 @@
       <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -788,7 +797,7 @@
       <c r="G4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -821,7 +830,7 @@
       <c r="G5" s="1">
         <v>2004</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="8"/>
       <c r="K5">
         <v>1</v>
       </c>
@@ -844,7 +853,7 @@
         <v>4002</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="8"/>
       <c r="K6">
         <v>2</v>
       </c>
@@ -867,7 +876,7 @@
         <v>4003</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="8"/>
       <c r="L7">
         <v>53</v>
       </c>
@@ -887,7 +896,7 @@
         <v>4004</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="8"/>
       <c r="L8">
         <v>54</v>
       </c>
@@ -925,7 +934,7 @@
         <v>4000</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="8"/>
       <c r="L10">
         <v>56</v>
       </c>
@@ -945,7 +954,7 @@
         <v>4000</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="8"/>
       <c r="L11">
         <v>50</v>
       </c>
@@ -1050,11 +1059,11 @@
       <c r="F17">
         <v>4001</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="4">
-        <v>593857</v>
+      <c r="H17" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>47</v>
@@ -1071,7 +1080,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="G17" numberStoredAsText="1"/>
+    <ignoredError sqref="G17:H17" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C28132-AF29-4136-A17B-A9FF196BE9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E172AF09-2373-4A49-9853-A76F38C7E811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6765" yWindow="7590" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,33 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-需要显示的才填，填多个是将其连接起来</t>
+需要显示的才填，填单个是asset表中ID， 填多个是填itemID，将对应的item对应的3D模型连接起来</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{220A3B8A-E557-4790-AB79-802C2DD68F76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jump Yellow:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+两个值，第一个值是模型原点到武器顶点的长度。第二个是武器模型长度</t>
         </r>
       </text>
     </comment>
@@ -122,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -313,15 +339,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2004,2004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3d模型长度叠加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>593,857</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d模型长度参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1450,1714</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三把斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2307,2571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3;7,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,7 +876,9 @@
       <c r="G5" s="1">
         <v>2004</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="K5">
         <v>1</v>
       </c>
@@ -1060,7 +1108,7 @@
         <v>4001</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>50</v>
@@ -1073,15 +1121,41 @@
       </c>
       <c r="L17">
         <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>2002</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4001</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18">
+        <v>1001</v>
+      </c>
+      <c r="L18">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <ignoredErrors>
-    <ignoredError sqref="G17:H17" numberStoredAsText="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E172AF09-2373-4A49-9853-A76F38C7E811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F9C7B-CC64-4BCF-831A-E3190944E7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <author>feikai huang</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{84E9141E-0C7C-4520-AF7C-41D162B69530}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{84E9141E-0C7C-4520-AF7C-41D162B69530}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{220A3B8A-E557-4790-AB79-802C2DD68F76}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{220A3B8A-E557-4790-AB79-802C2DD68F76}">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0" xr:uid="{8ADE91C7-ACE2-404D-AC4C-B3FA4FC2A8B1}">
+    <comment ref="K4" authorId="1" shapeId="0" xr:uid="{8ADE91C7-ACE2-404D-AC4C-B3FA4FC2A8B1}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>#</t>
   </si>
@@ -369,6 +369,48 @@
   <si>
     <t>1,1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName_Axe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName_Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName_Dagger</t>
+  </si>
+  <si>
+    <t>ItemName_ArmorPlate</t>
+  </si>
+  <si>
+    <t>ItemName_KineticEngine</t>
+  </si>
+  <si>
+    <t>ItemName_ComputingUnit</t>
+  </si>
+  <si>
+    <t>ItemName_UniversalAdhesive</t>
+  </si>
+  <si>
+    <t>ItemName_WhirlingAxe</t>
+  </si>
+  <si>
+    <t>ItemName_ThornArmor</t>
+  </si>
+  <si>
+    <t>ItemName_ChargedArmor</t>
+  </si>
+  <si>
+    <t>ItemName_TwoAxes</t>
+  </si>
+  <si>
+    <t>ItemName_ThreeAxes</t>
   </si>
 </sst>
 </file>
@@ -386,6 +428,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -722,106 +765,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="5" customWidth="1"/>
-    <col min="9" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="28.08984375" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="7" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="5" customWidth="1"/>
+    <col min="10" max="11" width="17.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" customWidth="1"/>
+    <col min="13" max="13" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,326 +877,367 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <v>4001</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>2004</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>4002</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="8"/>
-      <c r="K6">
+      <c r="H6" s="1"/>
+      <c r="I6" s="8"/>
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
         <v>4003</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="8"/>
-      <c r="L7">
+      <c r="H7" s="1"/>
+      <c r="I7" s="8"/>
+      <c r="M7">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
         <v>4004</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="8"/>
-      <c r="L8">
+      <c r="H8" s="1"/>
+      <c r="I8" s="8"/>
+      <c r="M8">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9">
-        <v>1</v>
-      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>4005</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
         <v>4000</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="8"/>
-      <c r="L10">
+      <c r="H10" s="1"/>
+      <c r="I10" s="8"/>
+      <c r="M10">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <v>4000</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="8"/>
-      <c r="L11">
+      <c r="H11" s="1"/>
+      <c r="I11" s="8"/>
+      <c r="M11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1001</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13">
-        <v>1</v>
-      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>4501</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13">
+      <c r="K13" s="2"/>
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1002</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>4502</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>4</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1003</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>4503</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>5</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2001</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E17">
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4001</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
       <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2002</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E18">
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>4001</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1001</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>300</v>
       </c>
     </row>

--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F9C7B-CC64-4BCF-831A-E3190944E7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB738CE-42AA-4399-B4A4-10A90E273F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7100" yWindow="4390" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -411,6 +411,14 @@
   </si>
   <si>
     <t>ItemName_ThreeAxes</t>
+  </si>
+  <si>
+    <t>战斗狂热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -765,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1080,144 +1088,132 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4001</v>
+      </c>
+      <c r="L12">
+        <v>10002</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1001</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4501</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>120</v>
-      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K14" s="2"/>
       <c r="L14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
+        <v>1002</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4502</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>1003</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>4503</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>5</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>2001</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>4001</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2002</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1226,19 +1222,56 @@
         <v>4001</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2002</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>4001</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>1001</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB738CE-42AA-4399-B4A4-10A90E273F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB60FE8F-644B-41D0-A8B2-DD98FBCB720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="4390" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8120" yWindow="5410" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -207,22 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>匕首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动能引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#需要合成的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,18 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ItemName_Dagger</t>
-  </si>
-  <si>
-    <t>ItemName_ArmorPlate</t>
-  </si>
-  <si>
-    <t>ItemName_KineticEngine</t>
-  </si>
-  <si>
-    <t>ItemName_ComputingUnit</t>
-  </si>
-  <si>
     <t>ItemName_UniversalAdhesive</t>
   </si>
   <si>
@@ -418,6 +390,10 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命比例护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,14 +749,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
     <col min="4" max="4" width="28.08984375" customWidth="1"/>
     <col min="5" max="5" width="14.1796875" customWidth="1"/>
     <col min="7" max="8" width="13.26953125" customWidth="1"/>
@@ -811,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -820,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -859,22 +836,22 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -885,13 +862,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>7</v>
@@ -900,22 +877,22 @@
         <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -926,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5">
@@ -939,7 +916,7 @@
         <v>2004</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -956,7 +933,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6">
@@ -978,12 +955,10 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7">
         <v>1</v>
@@ -993,285 +968,221 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="8"/>
+      <c r="L7">
+        <v>6</v>
+      </c>
       <c r="M7">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>4004</v>
+        <v>4000</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="8"/>
       <c r="M8">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4005</v>
+        <v>4001</v>
+      </c>
+      <c r="L9">
+        <v>10002</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4000</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="8"/>
-      <c r="M10">
-        <v>56</v>
-      </c>
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>7</v>
+        <v>1001</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>4000</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="8"/>
+      <c r="G11">
+        <v>4501</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11">
+        <v>3</v>
+      </c>
       <c r="M11">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>8</v>
+        <v>1002</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4001</v>
+        <v>4502</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="L12">
-        <v>10002</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="B13">
+        <v>1003</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4503</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>123</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>1001</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>4501</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>120</v>
-      </c>
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>4001</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>4502</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
       <c r="M15">
-        <v>122</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>1003</v>
+        <v>2002</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>4503</v>
+        <v>4001</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>1001</v>
       </c>
       <c r="M16">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2001</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>4001</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>2002</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>4001</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19">
-        <v>1001</v>
-      </c>
-      <c r="M19">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB60FE8F-644B-41D0-A8B2-DD98FBCB720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017471CD-0B8D-4ED1-BE23-A2D94FFA8BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="5410" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="-1770" windowWidth="21810" windowHeight="23430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -394,6 +394,10 @@
   </si>
   <si>
     <t>生命比例护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1019,144 +1023,132 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4001</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1001</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4501</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="M11">
-        <v>120</v>
-      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
+        <v>4502</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1003</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>4503</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>5</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>2001</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>4001</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>200</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1165,23 +1157,55 @@
         <v>4001</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2002</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>4001</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>1001</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
     </row>
